--- a/DI Comparison Chart.xlsx
+++ b/DI Comparison Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Source\Github\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Source\Github\CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="LDI Comparison Chart" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="141">
   <si>
     <t>Machine</t>
   </si>
@@ -59,368 +60,431 @@
     <t>Models/Options</t>
   </si>
   <si>
+    <t>Standard/Fine</t>
+  </si>
+  <si>
+    <t>Integrated (see notes) or Stand alone</t>
+  </si>
+  <si>
+    <t>Single Side, Double Side, PSR, Roll to Roll</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Circuit Imaging</t>
+  </si>
+  <si>
+    <t>Orbotech</t>
+  </si>
+  <si>
+    <t>Manz (formerly KLEO)</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Adtec</t>
+  </si>
+  <si>
+    <t>Ajuhitek</t>
+  </si>
+  <si>
+    <t>Chime Ball Technology (CBT)</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Laser Diode</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Laser diodes: 288 beams; 405 nm9 modules, 32 laser diodes per module</t>
+  </si>
+  <si>
+    <t>DMD with UV-LED 5-6 Heads</t>
+  </si>
+  <si>
+    <t>DMD with UV-LED leveraging Fugifilm's laser unit and lens design.</t>
+  </si>
+  <si>
+    <t>UV Laser Diode</t>
+  </si>
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>405 nm</t>
+  </si>
+  <si>
+    <t>405nm</t>
+  </si>
+  <si>
+    <t>365nm, 385nm, 405nm</t>
+  </si>
+  <si>
+    <t>Depth of Focus</t>
+  </si>
+  <si>
+    <t>±400µ</t>
+  </si>
+  <si>
+    <t>±300µ</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>100W+</t>
+  </si>
+  <si>
+    <t>2.5kWhUp to 100mj/㎠</t>
+  </si>
+  <si>
+    <t>Film Resist Sides/hour</t>
+  </si>
+  <si>
+    <t>610X460mm: 240</t>
+  </si>
+  <si>
+    <t>Image Size Unknown: 360</t>
+  </si>
+  <si>
+    <t>510X405mm: 187 (Standard)</t>
+  </si>
+  <si>
+    <t>Soldermask Sides/hour</t>
+  </si>
+  <si>
+    <t>510X405mm: 71 (Standard)</t>
+  </si>
+  <si>
+    <t>Speed Details</t>
+  </si>
+  <si>
+    <t>Edge Roughness</t>
+  </si>
+  <si>
+    <t>2 μm</t>
+  </si>
+  <si>
+    <t>Positional Accuracy / Data Resolution / Alignment Accuracy</t>
+  </si>
+  <si>
+    <t>5µm</t>
+  </si>
+  <si>
+    <t>Fine: 7 micron</t>
+  </si>
+  <si>
+    <t>20μm</t>
+  </si>
+  <si>
+    <t>Registration Accuracy (Side by Side Alignment Accuracy)</t>
+  </si>
+  <si>
+    <t>25µm</t>
+  </si>
+  <si>
+    <t>20µm</t>
+  </si>
+  <si>
+    <t>Line/Space Width</t>
+  </si>
+  <si>
+    <t>20µm/20µm</t>
+  </si>
+  <si>
+    <t>18µm</t>
+  </si>
+  <si>
+    <t>15 μm</t>
+  </si>
+  <si>
+    <t>Fine: 12/12 μm</t>
+  </si>
+  <si>
+    <t>Line/Space SEM Image</t>
+  </si>
+  <si>
+    <t>DF Thickness</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Fine: 20µm</t>
+  </si>
+  <si>
+    <t>Hole Diameter</t>
+  </si>
+  <si>
+    <t>Fine: 40µm</t>
+  </si>
+  <si>
+    <t>100µm</t>
+  </si>
+  <si>
+    <t>Hole Diameter Image</t>
+  </si>
+  <si>
+    <t>SRO (solder resist opening)</t>
+  </si>
+  <si>
+    <t>75µm</t>
+  </si>
+  <si>
+    <t>50µm</t>
+  </si>
+  <si>
+    <t>SR Thickness</t>
+  </si>
+  <si>
+    <t>Fine: 20 micron</t>
+  </si>
+  <si>
+    <t>Address Pitch</t>
+  </si>
+  <si>
+    <t>1 micron</t>
+  </si>
+  <si>
+    <t>Min. Image Size</t>
+  </si>
+  <si>
+    <t>305mm X 305mm</t>
+  </si>
+  <si>
+    <t>Max. Image Size</t>
+  </si>
+  <si>
+    <t>610mm X 813mm</t>
+  </si>
+  <si>
+    <t>660 mm width × 650 mm length (extendable)</t>
+  </si>
+  <si>
+    <t>512X661 mm(Optional: 610X661 mm)Large: 612X813mm</t>
+  </si>
+  <si>
+    <t>610mm X 660mm</t>
+  </si>
+  <si>
+    <t>680mm x 620mm</t>
+  </si>
+  <si>
+    <t>Panel Thickness</t>
+  </si>
+  <si>
+    <t>0.05 mm to 8 mm</t>
+  </si>
+  <si>
+    <t>Handling Options</t>
+  </si>
+  <si>
+    <t>Manual or Automatic</t>
+  </si>
+  <si>
+    <t>Manual or Automatic, Single or Double Sided</t>
+  </si>
+  <si>
+    <t>Machine Dimensions</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Double Machine Images</t>
+  </si>
+  <si>
+    <t>Expected Laser DMD Head Lifetime</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>2-3 years</t>
+  </si>
+  <si>
+    <t>Warranty Standard</t>
+  </si>
+  <si>
+    <t>Warranty Cost/year</t>
+  </si>
+  <si>
+    <t>Mechanical Clamping</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Autofocus if needed</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Panel Traceability(Serial Number Tracking)</t>
+  </si>
+  <si>
+    <t>Non-linear Distortion</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>1000 is designed for solder mask</t>
+  </si>
+  <si>
+    <t>Their integrated solution includes Loading, Pre-cleaning, First buffer, Dry film laminator (third-party product), Second buffer, Laser direct imaging, Third buffer, Mylar peeler (third-party product), Developer, Unloading.</t>
+  </si>
+  <si>
+    <t>Schmoll Maschinen, the well-known suppli-er of mechanical and laser drilling machines, is now also offering a DDI (digital direct imaging) system, ideal for prototyping innerlayer, out-erlayer, and soldermask images. It is based on semiconductor laser diodes and large (wide) op-tics. The imager is equipped with two to eight diode lasers and can handle a maximum panel size of 610 x 535 mm. Schmoll also offers MDI (micromirror digital imaging) systems. The sys-tems are available as a single-table unit or with a double stage for higher throughput. The units use high-power LEDs and DMD® with multiple waverlengths from 365 to 405 nm.</t>
+  </si>
+  <si>
+    <t>Video Examples</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AC9kSARQOWo</t>
+  </si>
+  <si>
+    <t>nuvogo_line.png</t>
+  </si>
+  <si>
+    <t>ledia_line.png</t>
+  </si>
+  <si>
+    <t>inprex_line.png</t>
+  </si>
+  <si>
+    <t>falcon.png</t>
+  </si>
+  <si>
+    <t>nuvogo.png</t>
+  </si>
+  <si>
+    <t>speedlight.png</t>
+  </si>
+  <si>
+    <t>nuvogodmi.png</t>
+  </si>
+  <si>
+    <t>inprexdmi.png</t>
+  </si>
+  <si>
+    <t>aladdindmi.png</t>
+  </si>
+  <si>
+    <t>lediaspeed.png</t>
+  </si>
+  <si>
+    <t>E Fine Prologue: 6/6µm
+PKG Standard: 8/8µm
+Stabi Fine: 12/12µm
+Large Panel: 15/15µm
+HDI Entry: 15/15µm
+HDI Standard: 15/15µm
+Stabi Fast: 15/15µm</t>
+  </si>
+  <si>
+    <t>Standard: 7.5µm
+E Fine Prologue: 5µm
+PKG Standard: 7µm
+Large Panel: 10µm</t>
+  </si>
+  <si>
+    <t>Standard: 30-40W
+Large Panel: 34-45
+WHDI Entry: 20W
+Stabi Fast: 40-50W
+Solder Resist: 80W (MAX)</t>
+  </si>
+  <si>
+    <t>Standard: 405nm
+Solder Resist: 365nm&amp;405nm</t>
+  </si>
+  <si>
+    <t>Standard: 334X334mm
+Large Panel: 483X381mm</t>
+  </si>
+  <si>
+    <t>E Fine Prologue: 546X622mm
+PKG Standard: 546X622mm
+Standard 551X640mm
+Large Panel: 635X838mm</t>
+  </si>
+  <si>
+    <t>Automatic single-side/Automatic 
+double-sided/Manual
+Standard/Fine
+Especially for Soldermask
+5 or 6 heads</t>
+  </si>
+  <si>
+    <t>E Fine/PKG Standard/Stabi 
+Fine/Large Panel</t>
+  </si>
+  <si>
+    <t>Standard Single Side: 100-180 sides/hour
+Fine Single Side: 55-100 sides/hour</t>
+  </si>
+  <si>
+    <t>Standard: 40μm - 50μm
+PSR: 50µm
+Fine: 20μm - 25μm</t>
+  </si>
+  <si>
+    <t>Standard: 40μm-50μm
+Fine: 20μm-25μm</t>
+  </si>
+  <si>
+    <t>Manual or Automatic, 
+Single or Double Sided</t>
+  </si>
+  <si>
+    <t>Single Sided: 1,740mm(W) x 2,640mm(D) x 1,763mm(H)
+Double Sided: 2,600mm(W) x 2,140mm(D) x 2,100mm(H)
+PSR: 1,510mm(W) x 2,540mm(D) x 1,968mm(H)</t>
+  </si>
+  <si>
     <t>Single Vacuum Table</t>
   </si>
   <si>
-    <t>Standard/Fine</t>
-  </si>
-  <si>
-    <t>Integrated (see notes) or Stand alone</t>
-  </si>
-  <si>
-    <t>Automatic single-side/Automatic double-sided/ManualStandard/FineEspecially for Soldermask5 or 6 heads</t>
-  </si>
-  <si>
-    <t>E Fine/PKG Standard/Stabi Fine/Large Panel</t>
-  </si>
-  <si>
-    <t>Single Side, Double Side, PSR, Roll to Roll</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Circuit Imaging</t>
-  </si>
-  <si>
-    <t>Orbotech</t>
-  </si>
-  <si>
-    <t>Manz (formerly KLEO)</t>
-  </si>
-  <si>
-    <t>Screen</t>
-  </si>
-  <si>
-    <t>Adtec</t>
-  </si>
-  <si>
-    <t>Ajuhitek</t>
-  </si>
-  <si>
-    <t>Chime Ball Technology (CBT)</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Laser Diode</t>
-  </si>
-  <si>
-    <t>Laser</t>
-  </si>
-  <si>
-    <t>Laser diodes: 288 beams; 405 nm9 modules, 32 laser diodes per module</t>
-  </si>
-  <si>
-    <t>DMD with UV-LED 5-6 Heads</t>
-  </si>
-  <si>
-    <t>DMD with UV-LED leveraging Fugifilm's laser unit and lens design.</t>
-  </si>
-  <si>
-    <t>UV Laser Diode</t>
-  </si>
-  <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
-    <t>405 nm</t>
-  </si>
-  <si>
-    <t>405nm</t>
-  </si>
-  <si>
-    <t>365nm, 385nm, 405nm</t>
-  </si>
-  <si>
-    <t>Standard: 405nmSolder Resist: 365nm&amp;405nm</t>
-  </si>
-  <si>
-    <t>Depth of Focus</t>
-  </si>
-  <si>
-    <t>±400µ</t>
-  </si>
-  <si>
-    <t>±300µ</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>100W+</t>
-  </si>
-  <si>
-    <t>Standard: 30-40WLarge Panel: 34-45WHDI Entry: 20WStabi Fast: 40-50WSolder Resist: 80W (MAX)</t>
-  </si>
-  <si>
-    <t>2.5kWhUp to 100mj/㎠</t>
-  </si>
-  <si>
-    <t>Film Resist Sides/hour</t>
-  </si>
-  <si>
-    <t>610X460mm: 240</t>
-  </si>
-  <si>
-    <t>Image Size Unknown: 360</t>
-  </si>
-  <si>
-    <t>510X405mm: 187 (Standard)</t>
-  </si>
-  <si>
-    <t>Standard Single Side: 100-180 sides/hourFine Single Side: 55-100 sides/hour</t>
-  </si>
-  <si>
-    <t>Soldermask Sides/hour</t>
-  </si>
-  <si>
-    <t>510X405mm: 71 (Standard)</t>
-  </si>
-  <si>
-    <t>Speed Details</t>
-  </si>
-  <si>
-    <t>Edge Roughness</t>
-  </si>
-  <si>
-    <t>2 μm</t>
-  </si>
-  <si>
-    <t>Standard: 40μm-50μmFine: 20μm-25μm</t>
-  </si>
-  <si>
-    <t>Positional Accuracy / Data Resolution / Alignment Accuracy</t>
-  </si>
-  <si>
-    <t>5µm</t>
-  </si>
-  <si>
-    <t>Fine: 7 micron</t>
-  </si>
-  <si>
-    <t>Standard: 7.5µmE Fine Prologue: 5µmPKG Standard: 7µmLarge Panel: 10µm</t>
-  </si>
-  <si>
-    <t>20μm</t>
-  </si>
-  <si>
-    <t>Registration Accuracy (Side by Side Alignment Accuracy)</t>
-  </si>
-  <si>
-    <t>25µm</t>
-  </si>
-  <si>
-    <t>20µm</t>
-  </si>
-  <si>
-    <t>Line/Space Width</t>
-  </si>
-  <si>
-    <t>20µm/20µm</t>
-  </si>
-  <si>
-    <t>18µm</t>
-  </si>
-  <si>
-    <t>15 μm</t>
-  </si>
-  <si>
-    <t>Fine: 12/12 μm</t>
-  </si>
-  <si>
-    <t>E Fine Prologue: 6/6µmPKG Standard: 8/8µmStabi Fine: 12/12µmLarge Panel: 15/15µmHDI Entry: 15/15µmHDI Standard: 15/15µmStabi Fast: 15/15µm</t>
-  </si>
-  <si>
-    <t>Standard: 40μm - 50μmPSR: 50µmFine: 20μm - 25μm</t>
-  </si>
-  <si>
-    <t>Line/Space SEM Image</t>
-  </si>
-  <si>
-    <t>DF Thickness</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Fine: 20µm</t>
-  </si>
-  <si>
-    <t>Hole Diameter</t>
-  </si>
-  <si>
-    <t>Fine: 40µm</t>
-  </si>
-  <si>
-    <t>100µm</t>
-  </si>
-  <si>
-    <t>Hole Diameter Image</t>
-  </si>
-  <si>
-    <t>SRO (solder resist opening)</t>
-  </si>
-  <si>
-    <t>75µm</t>
-  </si>
-  <si>
-    <t>50µm</t>
-  </si>
-  <si>
-    <t>SR Thickness</t>
-  </si>
-  <si>
-    <t>Fine: 20 micron</t>
-  </si>
-  <si>
-    <t>Address Pitch</t>
-  </si>
-  <si>
-    <t>1 micron</t>
-  </si>
-  <si>
-    <t>Min. Image Size</t>
-  </si>
-  <si>
-    <t>305mm X 305mm</t>
-  </si>
-  <si>
-    <t>Standard: 334X334mmLarge Panel: 483X381mm</t>
-  </si>
-  <si>
-    <t>Max. Image Size</t>
-  </si>
-  <si>
-    <t>610mm X 813mm</t>
-  </si>
-  <si>
-    <t>660 mm width × 650 mm length (extendable)</t>
-  </si>
-  <si>
-    <t>512X661 mm(Optional: 610X661 mm)Large: 612X813mm</t>
-  </si>
-  <si>
-    <t>E Fine Prologue: 546X622mmPKG Standard: 546X622mmStandard 551X640mmLarge Panel: 635X838mm</t>
-  </si>
-  <si>
-    <t>610mm X 660mm</t>
-  </si>
-  <si>
-    <t>680mm x 620mm</t>
-  </si>
-  <si>
-    <t>Panel Thickness</t>
-  </si>
-  <si>
-    <t>0.05 mm to 8 mm</t>
-  </si>
-  <si>
-    <t>Handling Options</t>
-  </si>
-  <si>
-    <t>Manual or Automatic</t>
-  </si>
-  <si>
-    <t>Manual or Automatic, Single or Double Sided</t>
-  </si>
-  <si>
-    <t>Machine Dimensions</t>
-  </si>
-  <si>
-    <t>Single Sided: 1,740mm(W) x 2,640mm(D) x 1,763mm(H)Double Sided: 2,600mm(W) x 2,140mm(D) x 2,100mm(H)PSR: 1,510mm(W) x 2,540mm(D) x 1,968mm(H)</t>
-  </si>
-  <si>
-    <t>Models</t>
-  </si>
-  <si>
-    <t>Double Machine Images</t>
-  </si>
-  <si>
-    <t>Expected Laser DMD Head Lifetime</t>
-  </si>
-  <si>
-    <t>10 years</t>
-  </si>
-  <si>
-    <t>2-3 years</t>
-  </si>
-  <si>
-    <t>Warranty Standard</t>
-  </si>
-  <si>
-    <t>Warranty Cost/year</t>
-  </si>
-  <si>
-    <t>Mechanical Clamping</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Autofocus if needed</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Panel Traceability(Serial Number Tracking)</t>
-  </si>
-  <si>
-    <t>Non-linear Distortion</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>http://www.orbotech.com/imgs/uploads/PCB_Brochures_PDF/nuvogo1000_for%20web.pdfhttp://www.orbotech.com/imgs/uploads/PCB_Brochures_PDF/Nuvogo%20800%20brochure.pdf</t>
-  </si>
-  <si>
-    <t>SpeedLight Web PageSpeedLight 2D Brochure (General)</t>
-  </si>
-  <si>
-    <t>http://www.screen.co.jp/eng/pcb/products/ledia/index.html</t>
-  </si>
-  <si>
-    <t>Adtec DI LineupIS-4000h (for Soldermask)IP-4000h</t>
-  </si>
-  <si>
-    <t>Aladin LDI (general)Double Side LDISingle Side LDIPSR LDIRoll to Roll LDI</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>1000 is designed for solder mask</t>
-  </si>
-  <si>
-    <t>Their integrated solution includes Loading, Pre-cleaning, First buffer, Dry film laminator (third-party product), Second buffer, Laser direct imaging, Third buffer, Mylar peeler (third-party product), Developer, Unloading.</t>
-  </si>
-  <si>
-    <t>Schmoll Maschinen, the well-known suppli-er of mechanical and laser drilling machines, is now also offering a DDI (digital direct imaging) system, ideal for prototyping innerlayer, out-erlayer, and soldermask images. It is based on semiconductor laser diodes and large (wide) op-tics. The imager is equipped with two to eight diode lasers and can handle a maximum panel size of 610 x 535 mm. Schmoll also offers MDI (micromirror digital imaging) systems. The sys-tems are available as a single-table unit or with a double stage for higher throughput. The units use high-power LEDs and DMD® with multiple waverlengths from 365 to 405 nm.</t>
-  </si>
-  <si>
-    <t>Video Examples</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AC9kSARQOWo</t>
-  </si>
-  <si>
-    <t>nuvogo_line.png</t>
-  </si>
-  <si>
-    <t>ledia_line.png</t>
-  </si>
-  <si>
-    <t>inprex_line.png</t>
+    <t>brochure1</t>
+  </si>
+  <si>
+    <t>brochure2</t>
+  </si>
+  <si>
+    <t>blah</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>Adtec DI Lineup</t>
+  </si>
+  <si>
+    <t>IS-4000h (for Soldermask)</t>
+  </si>
+  <si>
+    <t>ip-4000h</t>
+  </si>
+  <si>
+    <t>website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,6 +496,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -460,17 +532,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,15 +581,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -510,7 +600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5438775" y="2800350"/>
+          <a:off x="5467350" y="2790825"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -855,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -919,33 +1009,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -965,34 +1055,34 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
@@ -1009,66 +1099,66 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
+      <c r="F5" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1077,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
@@ -1097,107 +1187,107 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C8" s="4">
         <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1208,8 +1298,8 @@
       <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" t="s">
-        <v>48</v>
+      <c r="I8" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
@@ -1229,10 +1319,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1241,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1273,116 +1363,119 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>59</v>
       </c>
       <c r="J12" t="s">
         <v>9</v>
@@ -1402,16 +1495,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -1426,42 +1519,42 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
+      <c r="F14" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -1469,8 +1562,8 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" t="s">
-        <v>69</v>
+      <c r="I14" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="J14" t="s">
         <v>9</v>
@@ -1490,19 +1583,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -1531,10 +1624,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1543,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1575,10 +1668,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1587,10 +1680,10 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -1619,7 +1712,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
@@ -1657,13 +1750,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1672,7 +1765,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
@@ -1701,7 +1794,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
@@ -1713,7 +1806,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1745,7 +1838,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -1757,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1787,12 +1880,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1803,8 +1896,8 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" t="s">
-        <v>87</v>
+      <c r="F22" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
@@ -1831,33 +1924,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
         <v>9</v>
@@ -1877,7 +1970,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
@@ -1886,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1919,9 +2012,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>9</v>
@@ -1933,10 +2026,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
@@ -1944,8 +2037,8 @@
       <c r="H25" t="s">
         <v>9</v>
       </c>
-      <c r="I25" t="s">
-        <v>99</v>
+      <c r="I25" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
@@ -1963,9 +2056,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
@@ -1988,8 +2081,8 @@
       <c r="H26" t="s">
         <v>9</v>
       </c>
-      <c r="I26" t="s">
-        <v>101</v>
+      <c r="I26" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="J26" t="s">
         <v>9</v>
@@ -2009,7 +2102,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -2044,10 +2146,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -2055,11 +2157,17 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
       <c r="G28" t="s">
         <v>9</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>117</v>
       </c>
       <c r="J28" t="s">
         <v>9</v>
@@ -2079,22 +2187,22 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -2123,7 +2231,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>9</v>
@@ -2167,7 +2275,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>9</v>
@@ -2211,7 +2319,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
@@ -2226,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -2255,10 +2363,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2270,7 +2378,7 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
@@ -2299,13 +2407,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -2343,22 +2451,22 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
@@ -2385,166 +2493,52 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" t="s">
-        <v>120</v>
-      </c>
-      <c r="J36" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" t="s">
-        <v>9</v>
-      </c>
-      <c r="M36" t="s">
-        <v>9</v>
-      </c>
-      <c r="N36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" t="s">
-        <v>9</v>
-      </c>
-      <c r="M37" t="s">
-        <v>9</v>
-      </c>
-      <c r="N37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N38" t="s">
-        <v>9</v>
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="3"/>
+      <c r="F38" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
+      <c r="A39" s="10"/>
+      <c r="B39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="7"/>
       <c r="G39" t="s">
         <v>9</v>
       </c>
       <c r="H39" t="s">
         <v>9</v>
       </c>
-      <c r="I39" t="s">
-        <v>9</v>
-      </c>
       <c r="J39" t="s">
         <v>9</v>
       </c>
@@ -2562,39 +2556,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" t="s">
-        <v>9</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
       <c r="L40" t="s">
         <v>9</v>
       </c>
@@ -2606,39 +2569,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" t="s">
-        <v>9</v>
-      </c>
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
       <c r="L41" t="s">
         <v>9</v>
       </c>
@@ -2651,16 +2583,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -2669,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
@@ -2695,7 +2627,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>9</v>
@@ -2703,8 +2635,8 @@
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" t="s">
-        <v>9</v>
+      <c r="D43" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -2825,13 +2757,192 @@
         <v>9</v>
       </c>
     </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A36:A41"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C36" r:id="rId1"/>
+    <hyperlink ref="C37" r:id="rId2"/>
+    <hyperlink ref="F36" r:id="rId3"/>
+    <hyperlink ref="F37" r:id="rId4"/>
+    <hyperlink ref="F38" r:id="rId5"/>
+    <hyperlink ref="E36" r:id="rId6"/>
+    <hyperlink ref="D43" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId8"/>
+  <drawing r:id="rId9"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DI Comparison Chart.xlsx
+++ b/DI Comparison Chart.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\CI\PCBEquipmentCompare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melissa\Documents\CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="25610" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LDI Comparison Chart" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="121">
   <si>
     <t>Machine</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>Dainippon Screen</t>
+  </si>
+  <si>
+    <t>ledia_img_02E_holediameter.jpg</t>
   </si>
 </sst>
 </file>
@@ -881,23 +884,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.125" customWidth="1"/>
-    <col min="3" max="3" width="59.875" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.08203125" customWidth="1"/>
+    <col min="3" max="3" width="59.83203125" customWidth="1"/>
     <col min="4" max="4" width="77.75" customWidth="1"/>
     <col min="5" max="5" width="124.25" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="133.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="103.625" customWidth="1"/>
+    <col min="8" max="8" width="103.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -973,7 +976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>117</v>
       </c>
@@ -988,7 +991,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="110.25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1593,13 +1596,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="63" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
@@ -2332,9 +2338,9 @@
       <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>112</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>113</v>
       </c>

--- a/DI Comparison Chart.xlsx
+++ b/DI Comparison Chart.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="121">
   <si>
     <t>Machine</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>SpeedLight 2D</t>
-  </si>
-  <si>
-    <t>Ledia 6F</t>
   </si>
   <si>
     <t>INPREX</t>
@@ -420,7 +417,11 @@
     <t>Dainippon Screen</t>
   </si>
   <si>
-    <t>ledia_img_02E_holediameter.jpg</t>
+    <t>Ledia</t>
+  </si>
+  <si>
+    <t>Ledia 6S (Standard Model)
+Ledia 6F (Fine Line Model)</t>
   </si>
 </sst>
 </file>
@@ -884,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -908,1411 +909,1408 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>93</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10" s="3">
         <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
       <c r="I16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" t="s">
-        <v>56</v>
-      </c>
       <c r="I21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="62" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>66</v>
       </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
         <v>96</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" t="s">
-        <v>97</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>76</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
         <v>80</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
-      </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" t="s">
         <v>85</v>
       </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" t="s">
-        <v>86</v>
-      </c>
       <c r="I37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2342,23 +2340,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
